--- a/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_6.xlsx
+++ b/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_6.xlsx
@@ -1211,7 +1211,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1">
-        <v>340926355</v>
+        <v>340926355.5</v>
       </c>
       <c r="D13" s="1">
         <v>338965688.90999979</v>
@@ -1247,7 +1247,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>5985666</v>
+        <v>985666.55</v>
       </c>
       <c r="D14" s="1">
         <v>-45752811.059999987</v>
@@ -1283,7 +1283,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>5530000000</v>
+        <v>300000000</v>
       </c>
       <c r="D15" s="1">
         <v>30000000</v>
@@ -1319,7 +1319,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>51786608</v>
+        <v>-51786608.799999997</v>
       </c>
       <c r="D16" s="1">
         <v>-50601311.959999993</v>
@@ -1391,7 +1391,8 @@
         <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>81515501800</v>
+        <f>SUM(C12:C17)</f>
+        <v>1785501800.1799998</v>
       </c>
       <c r="D18" s="1">
         <f>SUM(D12:D17)</f>
@@ -1433,7 +1434,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>392700000</v>
+        <v>-392700000</v>
       </c>
       <c r="D19" s="1">
         <v>-383099999.99999988</v>
@@ -1505,7 +1506,8 @@
         <v>22</v>
       </c>
       <c r="C21" s="33">
-        <v>1124090364</v>
+        <f>SUM(C18:C20)</f>
+        <v>1394090364.4599998</v>
       </c>
       <c r="D21" s="33">
         <f>SUM(D18:D20)</f>
@@ -1547,7 +1549,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="32">
-        <v>3376095</v>
+        <v>-33376095</v>
       </c>
       <c r="D22" s="32">
         <v>-32201025</v>
@@ -1584,7 +1586,7 @@
       </c>
       <c r="C23" s="33">
         <f>SUM(C21:C22)</f>
-        <v>1127466459</v>
+        <v>1360714269.4599998</v>
       </c>
       <c r="D23" s="33">
         <f>SUM(D21:D22)</f>
@@ -1632,7 +1634,7 @@
       </c>
       <c r="C25" s="5">
         <f>C23/C26</f>
-        <v>1.1236814268843727</v>
+        <v>1.3561461981271581</v>
       </c>
       <c r="D25" s="5">
         <f>D23/D26</f>
@@ -1727,7 +1729,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="16">
         <f>(D25-C25)/C25</f>
-        <v>-6.1841862519515636E-2</v>
+        <v>-0.22265691116260411</v>
       </c>
       <c r="E28" s="16">
         <f>(E25-D25)/D25</f>
@@ -1763,7 +1765,7 @@
       </c>
       <c r="C29" s="5">
         <f>SUM(C25:G25)/5</f>
-        <v>1.0273074513565308</v>
+        <v>1.0738004056050878</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
